--- a/config_multi.xls/game_update.xlsx
+++ b/config_multi.xls/game_update.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/trunk/gamedate/config_multi.xls/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5280" yWindow="3180" windowWidth="28800" windowHeight="12480" tabRatio="490"/>
   </bookViews>
@@ -16,9 +11,6 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +31,7 @@
             <b/>
             <sz val="11"/>
             <rFont val="MS PGothic"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>更新配置id</t>
         </r>
@@ -52,7 +44,7 @@
             <b/>
             <sz val="11"/>
             <rFont val="MS PGothic"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">游戏id
 特殊id: 苹果=-1 安卓=-2 大厅=-3 
@@ -67,7 +59,7 @@
             <b/>
             <sz val="11"/>
             <rFont val="MS PGothic"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>更新名称
 注意:同一个游戏该值相同，不区分游戏场
@@ -83,7 +75,7 @@
             <b/>
             <sz val="11"/>
             <rFont val="MS PGothic"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>描述</t>
         </r>
@@ -94,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -121,9 +113,6 @@
   </si>
   <si>
     <t>安卓</t>
-  </si>
-  <si>
-    <t>hall</t>
   </si>
   <si>
     <t>大厅</t>
@@ -372,12 +361,66 @@
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exas</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackjack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>德州</t>
+    <rPh sb="0" eb="1">
+      <t>bai'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>er'ba'g</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ain</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -395,12 +438,20 @@
       <b/>
       <sz val="11"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,12 +474,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -701,13 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
@@ -718,7 +772,7 @@
     <col min="1012" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -752,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -769,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -779,14 +833,14 @@
       <c r="C4" s="1">
         <v>-3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -797,13 +851,13 @@
         <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -814,13 +868,13 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -831,13 +885,13 @@
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -848,13 +902,13 @@
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -865,13 +919,13 @@
         <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -882,13 +936,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -899,13 +953,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -916,13 +970,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -933,13 +987,13 @@
         <v>136</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -950,13 +1004,13 @@
         <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -967,13 +1021,13 @@
         <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -984,13 +1038,13 @@
         <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1001,13 +1055,13 @@
         <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1018,13 +1072,13 @@
         <v>163</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1035,13 +1089,13 @@
         <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1052,13 +1106,13 @@
         <v>143</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1069,13 +1123,13 @@
         <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1086,13 +1140,13 @@
         <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1103,13 +1157,13 @@
         <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1120,13 +1174,13 @@
         <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1137,13 +1191,13 @@
         <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1154,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1171,13 +1225,13 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1188,13 +1242,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1205,13 +1259,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1222,13 +1276,13 @@
         <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1239,13 +1293,13 @@
         <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1256,13 +1310,13 @@
         <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1273,13 +1327,13 @@
         <v>159</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1290,13 +1344,13 @@
         <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1307,13 +1361,13 @@
         <v>162</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1324,13 +1378,13 @@
         <v>262</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1341,13 +1395,13 @@
         <v>64</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1358,13 +1412,13 @@
         <v>164</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1375,13 +1429,13 @@
         <v>66</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1392,13 +1446,13 @@
         <v>166</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1409,13 +1463,13 @@
         <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1426,13 +1480,13 @@
         <v>169</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1443,13 +1497,13 @@
         <v>71</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1460,13 +1514,13 @@
         <v>171</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1477,13 +1531,13 @@
         <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1494,13 +1548,13 @@
         <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1511,13 +1565,13 @@
         <v>172</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1528,13 +1582,13 @@
         <v>510</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1545,13 +1599,13 @@
         <v>104</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1562,13 +1616,13 @@
         <v>73</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1579,13 +1633,13 @@
         <v>173</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1596,13 +1650,13 @@
         <v>78</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1613,13 +1667,13 @@
         <v>178</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1630,13 +1684,13 @@
         <v>138</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1647,13 +1701,13 @@
         <v>81</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1664,13 +1718,13 @@
         <v>181</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1681,13 +1735,13 @@
         <v>129</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1698,13 +1752,13 @@
         <v>29</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1715,13 +1769,13 @@
         <v>105</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1732,13 +1786,13 @@
         <v>182</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1749,13 +1803,13 @@
         <v>82</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1766,13 +1820,13 @@
         <v>183</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1783,13 +1837,13 @@
         <v>83</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1800,13 +1854,13 @@
         <v>139</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1817,13 +1871,13 @@
         <v>106</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1834,13 +1888,13 @@
         <v>184</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1851,13 +1905,13 @@
         <v>107</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1868,16 +1922,84 @@
         <v>201</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1">
+        <v>202</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>26</v>
+      </c>
+      <c r="C70" s="1">
+        <v>203</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>